--- a/tests/input_data_sizes.xlsx
+++ b/tests/input_data_sizes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\simple_solver\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spelevova\Documents\simple_solver\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -814,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,7 +858,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
@@ -873,7 +873,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>34</v>
@@ -903,7 +903,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="5">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>32</v>
@@ -918,7 +918,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="5">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>35</v>
